--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value29.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value29.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.085702988156219</v>
+        <v>3.768535614013672</v>
       </c>
       <c r="B1">
-        <v>1.117476755457251</v>
+        <v>2.810459613800049</v>
       </c>
       <c r="C1">
-        <v>1.122824241373962</v>
+        <v>2.630307197570801</v>
       </c>
       <c r="D1">
-        <v>1.419682152879465</v>
+        <v>3.472831964492798</v>
       </c>
       <c r="E1">
-        <v>2.195622829663083</v>
+        <v>5.136696338653564</v>
       </c>
     </row>
   </sheetData>
